--- a/DOM_Banner/output/dept0713/Janet L Funk_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Janet L Funk_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arizona, Tucson, AZ 85724, USA; The University of Arizona Health Science Library, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; Department of Physiology, Honors College, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine and School of Nutritional Sciences and Wellness, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321787452</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Curcumin Supplementation and Human Disease: A Scoping Review of Clinical Trials</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms24054476</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36901908</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms24054476</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307974510</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Fuel Selection in Skeletal Muscle Exercising at Low Intensity; Reliance on Carbohydrate in Very Sedentary Individuals</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Metabolic Syndrome and Related Disorders</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Mary Ann Liebert, Inc.</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36318809</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arizona (UA); Honors College, UA; University of Arizona Cancer Center, UA; Honors College, UA; Department of Health Promotion Sciences, Mel &amp; Enid Zuckerman College of Public Health, UA; Department of Medicine, College of Medicine, UA; University of Arizona Cancer Center, UA; Department of Medicine, College of Medicine, UA; School of Nutritional Sciences &amp; Wellness, College of Agriculture and Life Sciences, UA; University of Arizona Cancer Center, UA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312220251</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Dietary Supplement Use in Women Diagnosed with Breast Cancer</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The Journal of Nutrition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.tjnut.2022.12.007</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36913466</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.tjnut.2022.12.007</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>School of Nutritional Sciences and Wellness, College of Agriculture and Life Science, University of Arizona, Tucson, AZ; University of Arizona Cancer Center, University of Arizona, Tucson, AZ; Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ; School of Nutritional Sciences and Wellness, College of Agriculture and Life Science, University of Arizona, Tucson, AZ; Department of Epidemiology and Biostatistics Department, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ.; Department of Epidemiology and Biostatistics Department, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ.; Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318019523</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Association of ß-glucuronidase activity with menopausal status, ethnicity, adiposity, and inflammation in women</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Menopause</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/gme.0000000000002106</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36696643</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/gme.0000000000002106</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arizona UA; ; University of Arizona Cancer Center, UA; ; Department of Health Promotion Sciences, Mel &amp; Enid Zuckerman College of Public Health, UA; Department of Medicine, College of Medicine, UA; University of Arizona Cancer Center, UA; Department of Medicine, College of Medicine, UA; School of Nutritional Sciences &amp; Wellness, College of Agriculture and Life Sciences, UA; University of Arizona Cancer Center, UA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366293749</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Corrigendum to ‘Dietary Supplement Use in Women Diagnosed with Breast Cancer’ [J Nutrition 2023 January;153(3):301-311]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The Journal of Nutrition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.tjnut.2023.04.008</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37084773</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.tjnut.2023.04.008</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378674545</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Unraveling the role of estrogen signaling in the breast cancer-bone connection</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Physiology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>American Physiological Society</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/physiol.2023.38.s1.5793712</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/physiol.2023.38.s1.5793712</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383556481</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frontiers in Physiology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Physiology, University of Arizona, Tucson, Arizona, USA; Department of Physiology, University of Arizona, Tucson, Arizona, USA; Department of Physiology, University of Arizona, Tucson, Arizona, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, Arizona, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388011409</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Inspiratory Muscle Strength Training to Improve Cardiometabolic Health in Patients with Type 2 Diabetes Mellitus: Protocol for the Diabetes Inspiratory Training (DIT) Clinical Trial</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.10.27.23297688</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.10.27.23297688</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Janet L Funk_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Janet L Funk_2023.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -621,42 +621,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Meg Hauer, Anthony Rossi, Betsy C. Wertheim, Hilary B. Kleppel, Jennifer W. Bea, Janet L. Funk</t>
+          <t>Janet L. Funk, Jennifer B. Frye, Susan A. Whitman, Anita Thomas, Geethika Ameneni, Alexandra Magee, Julia N. Cheng</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>College of Medicine, University of Arizona (UA); Honors College, UA; University of Arizona Cancer Center, UA; Honors College, UA; Department of Health Promotion Sciences, Mel &amp; Enid Zuckerman College of Public Health, UA; Department of Medicine, College of Medicine, UA; University of Arizona Cancer Center, UA; Department of Medicine, College of Medicine, UA; School of Nutritional Sciences &amp; Wellness, College of Agriculture and Life Sciences, UA; University of Arizona Cancer Center, UA</t>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312220251</t>
+          <t>https://openalex.org/W4378674545</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dietary Supplement Use in Women Diagnosed with Breast Cancer</t>
+          <t>Unraveling the role of estrogen signaling in the breast cancer-bone connection</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The Journal of Nutrition</t>
+          <t>Physiology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>American Physiological Society</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tjnut.2022.12.007</t>
+          <t>https://doi.org/10.1152/physiol.2023.38.s1.5793712</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36913466</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tjnut.2022.12.007</t>
+          <t>https://doi.org/10.1152/physiol.2023.38.s1.5793712</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Janet L. Funk, Betsy C. Wertheim, Jennifer B. Frye, Robert M. Blew, J. Skye Nicholas, Zhao Chen, Jennifer W. Bea</t>
+          <t>Meg Hauer, Anthony Rossi, Betsy C. Wertheim, Hilary B. Kleppel, Jennifer W. Bea, Janet L. Funk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>School of Nutritional Sciences and Wellness, College of Agriculture and Life Science, University of Arizona, Tucson, AZ; University of Arizona Cancer Center, University of Arizona, Tucson, AZ; Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ; School of Nutritional Sciences and Wellness, College of Agriculture and Life Science, University of Arizona, Tucson, AZ; Department of Epidemiology and Biostatistics Department, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ.; Department of Epidemiology and Biostatistics Department, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ.; Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ</t>
+          <t>College of Medicine, University of Arizona (UA); Honors College, UA; University of Arizona Cancer Center, UA; Honors College, UA; Department of Health Promotion Sciences, Mel &amp; Enid Zuckerman College of Public Health, UA; Department of Medicine, College of Medicine, UA; University of Arizona Cancer Center, UA; Department of Medicine, College of Medicine, UA; School of Nutritional Sciences &amp; Wellness, College of Agriculture and Life Sciences, UA; University of Arizona Cancer Center, UA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318019523</t>
+          <t>https://openalex.org/W4312220251</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Association of ß-glucuronidase activity with menopausal status, ethnicity, adiposity, and inflammation in women</t>
+          <t>Dietary Supplement Use in Women Diagnosed with Breast Cancer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Menopause</t>
+          <t>The Journal of Nutrition</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/gme.0000000000002106</t>
+          <t>https://doi.org/10.1016/j.tjnut.2022.12.007</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36696643</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36913466</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/gme.0000000000002106</t>
+          <t>https://doi.org/10.1016/j.tjnut.2022.12.007</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Meg Hauer, Anthony Rossi, Betsy C. Wertheim, Hilary B. Kleppel, Jennifer W. Bea, Janet L. Funk</t>
+          <t>Janet L. Funk, Betsy C. Wertheim, Jennifer B. Frye, Robert M. Blew, J. Skye Nicholas, Zhao Chen, Jennifer W. Bea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>College of Medicine, University of Arizona UA; ; University of Arizona Cancer Center, UA; ; Department of Health Promotion Sciences, Mel &amp; Enid Zuckerman College of Public Health, UA; Department of Medicine, College of Medicine, UA; University of Arizona Cancer Center, UA; Department of Medicine, College of Medicine, UA; School of Nutritional Sciences &amp; Wellness, College of Agriculture and Life Sciences, UA; University of Arizona Cancer Center, UA</t>
+          <t>School of Nutritional Sciences and Wellness, College of Agriculture and Life Science, University of Arizona, Tucson, AZ; University of Arizona Cancer Center, University of Arizona, Tucson, AZ; Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ; School of Nutritional Sciences and Wellness, College of Agriculture and Life Science, University of Arizona, Tucson, AZ; Department of Epidemiology and Biostatistics Department, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ.; Department of Epidemiology and Biostatistics Department, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ.; Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366293749</t>
+          <t>https://openalex.org/W4318019523</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Corrigendum to ‘Dietary Supplement Use in Women Diagnosed with Breast Cancer’ [J Nutrition 2023 January;153(3):301-311]</t>
+          <t>Association of ß-glucuronidase activity with menopausal status, ethnicity, adiposity, and inflammation in women</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The Journal of Nutrition</t>
+          <t>Menopause</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tjnut.2023.04.008</t>
+          <t>https://doi.org/10.1097/gme.0000000000002106</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37084773</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36696643</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tjnut.2023.04.008</t>
+          <t>https://doi.org/10.1097/gme.0000000000002106</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,22 +882,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Janet L. Funk, Jennifer B. Frye, Susan A. Whitman, Anita Thomas, Geethika Ameneni, Alexandra Magee, Julia N. Cheng</t>
+          <t>Meg Hauer, Anthony Rossi, Betsy C. Wertheim, Hilary B. Kleppel, Jennifer W. Bea, Janet L. Funk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+          <t>College of Medicine, University of Arizona UA; ; University of Arizona Cancer Center, UA; ; Department of Health Promotion Sciences, Mel &amp; Enid Zuckerman College of Public Health, UA; Department of Medicine, College of Medicine, UA; University of Arizona Cancer Center, UA; Department of Medicine, College of Medicine, UA; School of Nutritional Sciences &amp; Wellness, College of Agriculture and Life Sciences, UA; University of Arizona Cancer Center, UA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378674545</t>
+          <t>https://openalex.org/W4366293749</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unraveling the role of estrogen signaling in the breast cancer-bone connection</t>
+          <t>Corrigendum to ‘Dietary Supplement Use in Women Diagnosed with Breast Cancer’ [J Nutrition 2023 January;153(3):301-311]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -907,17 +907,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Physiology</t>
+          <t>The Journal of Nutrition</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>American Physiological Society</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/physiol.2023.38.s1.5793712</t>
+          <t>https://doi.org/10.1016/j.tjnut.2023.04.008</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37084773</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/physiol.2023.38.s1.5793712</t>
+          <t>https://doi.org/10.1016/j.tjnut.2023.04.008</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa B. Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
+          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
